--- a/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -71,27 +59,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,487 +449,355 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.643076615960455</v>
+        <v>0.633130423220635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.552942023976626</v>
+        <v>0.556791704304188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.650759708995054</v>
+        <v>0.493056521315741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.844032647638271</v>
+        <v>0.608803357414973</v>
       </c>
       <c r="F2" t="n">
-        <v>0.67652210377724</v>
+        <v>0.531182230184829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593169624517473</v>
+        <v>0.670833846908728</v>
       </c>
       <c r="H2" t="n">
-        <v>0.493085249893922</v>
+        <v>0.692812409550454</v>
       </c>
       <c r="I2" t="n">
-        <v>0.608737409969333</v>
+        <v>0.549295978763342</v>
       </c>
       <c r="J2" t="n">
-        <v>0.531117184053756</v>
+        <v>0.807022646248167</v>
       </c>
       <c r="K2" t="n">
-        <v>0.670833846908728</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.692812409550454</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.549726441585238</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.807365360151181</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.452947316523989</v>
+        <v>0.452892965198557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.560425612331314</v>
+        <v>0.563498853260559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.58658104791298</v>
+        <v>0.592539136795488</v>
       </c>
       <c r="D3" t="n">
-        <v>0.527112873451787</v>
+        <v>0.383411391668753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.763798468257485</v>
+        <v>0.510153602277153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.60581752341295</v>
+        <v>0.465702404553403</v>
       </c>
       <c r="G3" t="n">
-        <v>0.45525126255686</v>
+        <v>0.699951386105416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.383113142300926</v>
+        <v>0.705866678710194</v>
       </c>
       <c r="I3" t="n">
-        <v>0.509894688606516</v>
+        <v>0.449570088249459</v>
       </c>
       <c r="J3" t="n">
-        <v>0.465554151671427</v>
+        <v>0.735968083342179</v>
       </c>
       <c r="K3" t="n">
-        <v>0.699951386105416</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.705866678710194</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.449585410576009</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.736296419568565</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.385893436108439</v>
+        <v>0.386344486755095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.539880221309969</v>
+        <v>0.548888702456242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528629191133987</v>
+        <v>0.528919523634788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.516507714791926</v>
+        <v>0.336693874193082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.745542832548664</v>
+        <v>0.505578632976523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.591522697640448</v>
+        <v>0.481053993918987</v>
       </c>
       <c r="G4" t="n">
-        <v>0.393331473070931</v>
+        <v>0.754595050954226</v>
       </c>
       <c r="H4" t="n">
-        <v>0.336542232182459</v>
+        <v>0.764918944465133</v>
       </c>
       <c r="I4" t="n">
-        <v>0.505230827987069</v>
+        <v>0.455662843526806</v>
       </c>
       <c r="J4" t="n">
-        <v>0.48093662932419</v>
+        <v>0.697789663211793</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754595050954226</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.764918944465133</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.455548715765319</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.697825570644652</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.345324915229012</v>
+        <v>0.345516117316969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.507911322217956</v>
+        <v>0.492515087699993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.530599228810728</v>
+        <v>0.427704966662765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.478511511098461</v>
+        <v>0.311581900605115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.735775453712565</v>
+        <v>0.460084045480565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.533968954829481</v>
+        <v>0.38441921408349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.502745844017043</v>
+        <v>0.703571225719179</v>
       </c>
       <c r="H5" t="n">
-        <v>0.313369052086315</v>
+        <v>0.7538556364906</v>
       </c>
       <c r="I5" t="n">
-        <v>0.484622528391061</v>
+        <v>0.446547267517491</v>
       </c>
       <c r="J5" t="n">
-        <v>0.448059849371204</v>
+        <v>0.597618388012403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.530644213623694</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.591894601389567</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.366739576605313</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.636244523091569</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.338288414761604</v>
+        <v>0.352144673086557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4888214870715</v>
+        <v>0.487666417243067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.432730130739286</v>
+        <v>0.507683351069014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.483400294855792</v>
+        <v>0.219184379605566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.665040326888945</v>
+        <v>0.387322696004644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.496209696426885</v>
+        <v>0.377769238751658</v>
       </c>
       <c r="G6" t="n">
-        <v>0.394016055359984</v>
+        <v>0.688471530144484</v>
       </c>
       <c r="H6" t="n">
-        <v>0.31152110646178</v>
+        <v>0.721961860164294</v>
       </c>
       <c r="I6" t="n">
-        <v>0.460006696189814</v>
+        <v>0.361562972247251</v>
       </c>
       <c r="J6" t="n">
-        <v>0.384352534852876</v>
+        <v>0.632667573918023</v>
       </c>
       <c r="K6" t="n">
-        <v>0.703571225719179</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.7538556364906</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.446396433300696</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.597731970627413</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.351805469661239</v>
+        <v>0.339453064229604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.482277519627035</v>
+        <v>0.486367361421124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.498881501057443</v>
+        <v>0.518104168638399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.466647136859669</v>
+        <v>0.31357267707136</v>
       </c>
       <c r="E7" t="n">
-        <v>0.680637201031153</v>
+        <v>0.484806208512163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.586601734450703</v>
+        <v>0.448145256545193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.433288549559339</v>
+        <v>0.530644213623694</v>
       </c>
       <c r="H7" t="n">
-        <v>0.231086026143386</v>
+        <v>0.591894601389567</v>
       </c>
       <c r="I7" t="n">
-        <v>0.392683815775423</v>
+        <v>0.366262634781694</v>
       </c>
       <c r="J7" t="n">
-        <v>0.400302584143619</v>
+        <v>0.635651938591609</v>
       </c>
       <c r="K7" t="n">
-        <v>0.629350439518224</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.677149008732137</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.355035773993518</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.61288656818263</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.311147517419371</v>
+        <v>0.33853677151088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.474965817868993</v>
+        <v>0.484425269846573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.473301397188161</v>
+        <v>0.452900311678667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.464233337259851</v>
+        <v>0.197887265448319</v>
       </c>
       <c r="E8" t="n">
-        <v>0.706497297796603</v>
+        <v>0.385404090605957</v>
       </c>
       <c r="F8" t="n">
-        <v>0.510272192063043</v>
+        <v>0.379724102910581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.418686874626132</v>
+        <v>0.672464791241274</v>
       </c>
       <c r="H8" t="n">
-        <v>0.223392707033914</v>
+        <v>0.71838912281039</v>
       </c>
       <c r="I8" t="n">
-        <v>0.326696096798477</v>
+        <v>0.378924737497152</v>
       </c>
       <c r="J8" t="n">
-        <v>0.340376388947851</v>
+        <v>0.619589144561117</v>
       </c>
       <c r="K8" t="n">
-        <v>0.603725863836496</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.661498159140946</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.369313477448178</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.605977014852011</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.349365412186497</v>
+        <v>0.258254482209228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.471409753379986</v>
+        <v>0.472274429131213</v>
       </c>
       <c r="C9" t="n">
-        <v>0.497180119744863</v>
+        <v>0.476364502493748</v>
       </c>
       <c r="D9" t="n">
-        <v>0.46081966042147</v>
+        <v>0.223394314273261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.660503188555465</v>
+        <v>0.326906105388108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.52368854844778</v>
+        <v>0.340508401165705</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333660323829767</v>
+        <v>0.603725863836496</v>
       </c>
       <c r="H9" t="n">
-        <v>0.219059333337819</v>
+        <v>0.661498159140946</v>
       </c>
       <c r="I9" t="n">
-        <v>0.38703689444714</v>
+        <v>0.369259741689718</v>
       </c>
       <c r="J9" t="n">
-        <v>0.377614968431121</v>
+        <v>0.605720762515847</v>
       </c>
       <c r="K9" t="n">
-        <v>0.688471530144484</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.721961860164295</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.361423738794898</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.632944518055283</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.33929389486742</v>
+        <v>0.349545584826317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.467474746861263</v>
+        <v>0.463687229299451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.445122610692431</v>
+        <v>0.497513940092693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.474303899758556</v>
+        <v>0.231140663914579</v>
       </c>
       <c r="E10" t="n">
-        <v>0.708511277775334</v>
+        <v>0.39288890608071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.53969298645928</v>
+        <v>0.400497772491134</v>
       </c>
       <c r="G10" t="n">
-        <v>0.330318887542515</v>
+        <v>0.629350439518224</v>
       </c>
       <c r="H10" t="n">
-        <v>0.197821655392755</v>
+        <v>0.677149008732137</v>
       </c>
       <c r="I10" t="n">
-        <v>0.385120930493329</v>
+        <v>0.355170865465525</v>
       </c>
       <c r="J10" t="n">
-        <v>0.379584821601184</v>
+        <v>0.611945859008054</v>
       </c>
       <c r="K10" t="n">
-        <v>0.672464791241274</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.71838912281039</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.37878107756736</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.619916966752605</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.258071552052919</v>
+        <v>0.310545566749026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.378532663776064</v>
+        <v>0.373752935747861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370019073954764</v>
+        <v>0.367935781075227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.346495236167622</v>
+        <v>0.206480752740589</v>
       </c>
       <c r="E11" t="n">
-        <v>0.583607170163392</v>
+        <v>0.301394636393387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.403693792789707</v>
+        <v>0.28022832538204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3200919804881</v>
+        <v>0.533333498726061</v>
       </c>
       <c r="H11" t="n">
-        <v>0.206396437506528</v>
+        <v>0.58586931877385</v>
       </c>
       <c r="I11" t="n">
-        <v>0.301129490809894</v>
+        <v>0.285288177307175</v>
       </c>
       <c r="J11" t="n">
-        <v>0.280212074806099</v>
+        <v>0.48529662511572</v>
       </c>
       <c r="K11" t="n">
-        <v>0.533333498726061</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.58586931877385</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.285597220552443</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.485495367136285</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.257367440254813</v>
+        <v>0.257067972351958</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -449,10 +461,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.633130423220635</v>
@@ -461,33 +485,45 @@
         <v>0.556791704304188</v>
       </c>
       <c r="D2" t="n">
+        <v>0.650759708995054</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.844032647638271</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.67652210377724</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.593169624517473</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.493056521315741</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>0.608803357414973</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.531182230184829</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.670833846908728</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0.692812409550454</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.549295978763342</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.807022646248167</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.452892965198557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.563498853260559</v>
@@ -496,33 +532,45 @@
         <v>0.592539136795488</v>
       </c>
       <c r="D3" t="n">
+        <v>0.527112873451788</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.763798468257485</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.60581752341295</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.45525126255686</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.383411391668753</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.510153602277153</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.465702404553403</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0.699951386105416</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>0.705866678710194</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.449570088249459</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.735968083342179</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.386344486755095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.548888702456242</v>
@@ -531,33 +579,45 @@
         <v>0.528919523634788</v>
       </c>
       <c r="D4" t="n">
+        <v>0.516507714791926</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.745542832548664</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.591522697640448</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.393331473070931</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.336693874193082</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>0.505578632976523</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.481053993918987</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>0.754595050954226</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>0.764918944465133</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.455662843526806</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.697789663211793</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.345516117316969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0.492515087699993</v>
@@ -566,33 +626,45 @@
         <v>0.427704966662765</v>
       </c>
       <c r="D5" t="n">
+        <v>0.483400294855792</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.665040326888945</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.496209696426885</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.394016055359984</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.311581900605115</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>0.460084045480565</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>0.38441921408349</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>0.703571225719179</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>0.7538556364906</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.446547267517491</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>0.597618388012403</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.352144673086557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.487666417243067</v>
@@ -601,33 +673,45 @@
         <v>0.507683351069014</v>
       </c>
       <c r="D6" t="n">
+        <v>0.46081966042147</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.660503188555465</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.52368854844778</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.333660323829767</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.219184379605566</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>0.387322696004644</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.377769238751658</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>0.688471530144484</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>0.721961860164294</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.361562972247251</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.632667573918023</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.339453064229604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.486367361421124</v>
@@ -636,33 +720,45 @@
         <v>0.518104168638399</v>
       </c>
       <c r="D7" t="n">
+        <v>0.478511511098461</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.735775453712565</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.533968954829481</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.502745844017043</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.31357267707136</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
         <v>0.484806208512163</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.448145256545193</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>0.530644213623694</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
         <v>0.591894601389567</v>
       </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>0.366262634781694</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.635651938591609</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.33853677151088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.484425269846573</v>
@@ -671,33 +767,45 @@
         <v>0.452900311678667</v>
       </c>
       <c r="D8" t="n">
+        <v>0.474303899758556</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.708511277775334</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.53969298645928</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.330318887542515</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.197887265448319</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
         <v>0.385404090605957</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>0.379724102910581</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>0.672464791241274</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>0.71838912281039</v>
       </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>0.378924737497152</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.619589144561117</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.258254482209228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0.472274429131213</v>
@@ -706,33 +814,45 @@
         <v>0.476364502493748</v>
       </c>
       <c r="D9" t="n">
+        <v>0.464233337259851</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.706497297796603</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.510272192063043</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.418686874626132</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.223394314273261</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
         <v>0.326906105388108</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>0.340508401165705</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>0.603725863836496</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>0.661498159140946</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>0.369259741689718</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.605720762515847</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.349545584826317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0.463687229299451</v>
@@ -741,33 +861,45 @@
         <v>0.497513940092693</v>
       </c>
       <c r="D10" t="n">
+        <v>0.466647136859669</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.680637201031153</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.586601734450703</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.433288549559339</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.231140663914579</v>
       </c>
-      <c r="E10" t="n">
+      <c r="I10" t="n">
         <v>0.39288890608071</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>0.400497772491134</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>0.629350439518224</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>0.677149008732137</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>0.355170865465525</v>
       </c>
-      <c r="J10" t="n">
+      <c r="N10" t="n">
         <v>0.611945859008054</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.310545566749026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>0.373752935747861</v>
@@ -776,27 +908,39 @@
         <v>0.367935781075227</v>
       </c>
       <c r="D11" t="n">
+        <v>0.346495236167622</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.583607170163392</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.403693792789707</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3200919804881</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.206480752740589</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
         <v>0.301394636393387</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>0.28022832538204</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>0.533333498726061</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
         <v>0.58586931877385</v>
       </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>0.285288177307175</v>
       </c>
-      <c r="J11" t="n">
+      <c r="N11" t="n">
         <v>0.48529662511572</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.257067972351958</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
@@ -479,10 +479,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.633130423220635</v>
+        <v>0.633494335624418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.556791704304188</v>
+        <v>0.556813713198418</v>
       </c>
       <c r="D2" t="n">
         <v>0.650759708995054</v>
@@ -526,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563498853260559</v>
+        <v>0.563185705845955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.592539136795488</v>
+        <v>0.592543147278108</v>
       </c>
       <c r="D3" t="n">
         <v>0.527112873451788</v>
@@ -573,10 +573,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.548888702456242</v>
+        <v>0.549025299914154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528919523634788</v>
+        <v>0.528946654703664</v>
       </c>
       <c r="D4" t="n">
         <v>0.516507714791926</v>
@@ -620,10 +620,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.492515087699993</v>
+        <v>0.492207052765953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.427704966662765</v>
+        <v>0.427606416806061</v>
       </c>
       <c r="D5" t="n">
         <v>0.483400294855792</v>
@@ -667,10 +667,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.487666417243067</v>
+        <v>0.487936223741052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.507683351069014</v>
+        <v>0.507741914099068</v>
       </c>
       <c r="D6" t="n">
         <v>0.46081966042147</v>
@@ -697,13 +697,13 @@
         <v>0.688471530144484</v>
       </c>
       <c r="L6" t="n">
-        <v>0.721961860164294</v>
+        <v>0.721961860164295</v>
       </c>
       <c r="M6" t="n">
         <v>0.361562972247251</v>
       </c>
       <c r="N6" t="n">
-        <v>0.632667573918023</v>
+        <v>0.632667573918024</v>
       </c>
       <c r="O6" t="n">
         <v>0.339453064229604</v>
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.486367361421124</v>
+        <v>0.48659573221636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.518104168638399</v>
+        <v>0.517928538943104</v>
       </c>
       <c r="D7" t="n">
         <v>0.478511511098461</v>
@@ -729,7 +729,7 @@
         <v>0.533968954829481</v>
       </c>
       <c r="G7" t="n">
-        <v>0.502745844017043</v>
+        <v>0.502745844017042</v>
       </c>
       <c r="H7" t="n">
         <v>0.31357267707136</v>
@@ -761,10 +761,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>0.484425269846573</v>
+        <v>0.484505093491948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.452900311678667</v>
+        <v>0.452981297482073</v>
       </c>
       <c r="D8" t="n">
         <v>0.474303899758556</v>
@@ -808,10 +808,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.472274429131213</v>
+        <v>0.472605946730509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.476364502493748</v>
+        <v>0.476425420419455</v>
       </c>
       <c r="D9" t="n">
         <v>0.464233337259851</v>
@@ -847,7 +847,7 @@
         <v>0.605720762515847</v>
       </c>
       <c r="O9" t="n">
-        <v>0.349545584826317</v>
+        <v>0.349545584826316</v>
       </c>
     </row>
     <row r="10">
@@ -855,10 +855,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>0.463687229299451</v>
+        <v>0.463777077783225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.497513940092693</v>
+        <v>0.497510487887524</v>
       </c>
       <c r="D10" t="n">
         <v>0.466647136859669</v>
@@ -879,7 +879,7 @@
         <v>0.39288890608071</v>
       </c>
       <c r="J10" t="n">
-        <v>0.400497772491134</v>
+        <v>0.400497772491133</v>
       </c>
       <c r="K10" t="n">
         <v>0.629350439518224</v>
@@ -902,10 +902,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>0.373752935747861</v>
+        <v>0.373830435892481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.367935781075227</v>
+        <v>0.368064304468157</v>
       </c>
       <c r="D11" t="n">
         <v>0.346495236167622</v>

--- a/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_positive.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -470,477 +467,444 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.633494335624418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.556813713198418</v>
+        <v>0.650759708995054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.650759708995054</v>
+        <v>0.844032647638271</v>
       </c>
       <c r="E2" t="n">
-        <v>0.844032647638271</v>
+        <v>0.67652210377724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.67652210377724</v>
+        <v>0.593169624517473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593169624517473</v>
+        <v>0.493056521315741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.493056521315741</v>
+        <v>0.608803357414973</v>
       </c>
       <c r="I2" t="n">
-        <v>0.608803357414973</v>
+        <v>0.531182230184829</v>
       </c>
       <c r="J2" t="n">
-        <v>0.531182230184829</v>
+        <v>0.670833846908728</v>
       </c>
       <c r="K2" t="n">
-        <v>0.670833846908728</v>
+        <v>0.692812409550454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.692812409550454</v>
+        <v>0.549295978763342</v>
       </c>
       <c r="M2" t="n">
-        <v>0.549295978763342</v>
+        <v>0.807022646248167</v>
       </c>
       <c r="N2" t="n">
-        <v>0.807022646248167</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.452892965198557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.563185705845955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.592543147278108</v>
+        <v>0.527112873451788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.527112873451788</v>
+        <v>0.763798468257485</v>
       </c>
       <c r="E3" t="n">
-        <v>0.763798468257485</v>
+        <v>0.60581752341295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.60581752341295</v>
+        <v>0.45525126255686</v>
       </c>
       <c r="G3" t="n">
-        <v>0.45525126255686</v>
+        <v>0.383411391668753</v>
       </c>
       <c r="H3" t="n">
-        <v>0.383411391668753</v>
+        <v>0.510153602277153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.510153602277153</v>
+        <v>0.465702404553403</v>
       </c>
       <c r="J3" t="n">
-        <v>0.465702404553403</v>
+        <v>0.699951386105416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.699951386105416</v>
+        <v>0.705866678710194</v>
       </c>
       <c r="L3" t="n">
-        <v>0.705866678710194</v>
+        <v>0.449570088249459</v>
       </c>
       <c r="M3" t="n">
-        <v>0.449570088249459</v>
+        <v>0.735968083342179</v>
       </c>
       <c r="N3" t="n">
-        <v>0.735968083342179</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.386344486755095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.549025299914154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528946654703664</v>
+        <v>0.516507714791926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.516507714791926</v>
+        <v>0.745542832548664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.745542832548664</v>
+        <v>0.591522697640448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.591522697640448</v>
+        <v>0.393331473070931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.393331473070931</v>
+        <v>0.336693874193082</v>
       </c>
       <c r="H4" t="n">
-        <v>0.336693874193082</v>
+        <v>0.505578632976523</v>
       </c>
       <c r="I4" t="n">
-        <v>0.505578632976523</v>
+        <v>0.481053993918987</v>
       </c>
       <c r="J4" t="n">
-        <v>0.481053993918987</v>
+        <v>0.754595050954226</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754595050954226</v>
+        <v>0.764918944465133</v>
       </c>
       <c r="L4" t="n">
-        <v>0.764918944465133</v>
+        <v>0.455662843526806</v>
       </c>
       <c r="M4" t="n">
-        <v>0.455662843526806</v>
+        <v>0.697789663211793</v>
       </c>
       <c r="N4" t="n">
-        <v>0.697789663211793</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.345516117316969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.492207052765953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.427606416806061</v>
+        <v>0.483400294855792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.483400294855792</v>
+        <v>0.665040326888945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.665040326888945</v>
+        <v>0.496209696426885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.496209696426885</v>
+        <v>0.394016055359984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394016055359984</v>
+        <v>0.311581900605115</v>
       </c>
       <c r="H5" t="n">
-        <v>0.311581900605115</v>
+        <v>0.460084045480565</v>
       </c>
       <c r="I5" t="n">
-        <v>0.460084045480565</v>
+        <v>0.38441921408349</v>
       </c>
       <c r="J5" t="n">
-        <v>0.38441921408349</v>
+        <v>0.703571225719179</v>
       </c>
       <c r="K5" t="n">
-        <v>0.703571225719179</v>
+        <v>0.7538556364906</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7538556364906</v>
+        <v>0.446547267517491</v>
       </c>
       <c r="M5" t="n">
-        <v>0.446547267517491</v>
+        <v>0.597618388012403</v>
       </c>
       <c r="N5" t="n">
-        <v>0.597618388012403</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.352144673086557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.487936223741052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.507741914099068</v>
+        <v>0.46081966042147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46081966042147</v>
+        <v>0.660503188555465</v>
       </c>
       <c r="E6" t="n">
-        <v>0.660503188555465</v>
+        <v>0.52368854844778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.52368854844778</v>
+        <v>0.333660323829767</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333660323829767</v>
+        <v>0.219184379605566</v>
       </c>
       <c r="H6" t="n">
-        <v>0.219184379605566</v>
+        <v>0.387322696004644</v>
       </c>
       <c r="I6" t="n">
-        <v>0.387322696004644</v>
+        <v>0.377769238751658</v>
       </c>
       <c r="J6" t="n">
-        <v>0.377769238751658</v>
+        <v>0.688471530144484</v>
       </c>
       <c r="K6" t="n">
-        <v>0.688471530144484</v>
+        <v>0.721961860164295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.721961860164295</v>
+        <v>0.361562972247251</v>
       </c>
       <c r="M6" t="n">
-        <v>0.361562972247251</v>
+        <v>0.632667573918024</v>
       </c>
       <c r="N6" t="n">
-        <v>0.632667573918024</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.339453064229604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.48659573221636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517928538943104</v>
+        <v>0.478511511098461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.478511511098461</v>
+        <v>0.735775453712565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.735775453712565</v>
+        <v>0.533968954829481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.533968954829481</v>
+        <v>0.502745844017042</v>
       </c>
       <c r="G7" t="n">
-        <v>0.502745844017042</v>
+        <v>0.31357267707136</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31357267707136</v>
+        <v>0.484806208512163</v>
       </c>
       <c r="I7" t="n">
-        <v>0.484806208512163</v>
+        <v>0.448145256545193</v>
       </c>
       <c r="J7" t="n">
-        <v>0.448145256545193</v>
+        <v>0.530644213623694</v>
       </c>
       <c r="K7" t="n">
-        <v>0.530644213623694</v>
+        <v>0.591894601389567</v>
       </c>
       <c r="L7" t="n">
-        <v>0.591894601389567</v>
+        <v>0.366262634781694</v>
       </c>
       <c r="M7" t="n">
-        <v>0.366262634781694</v>
+        <v>0.635651938591609</v>
       </c>
       <c r="N7" t="n">
-        <v>0.635651938591609</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.33853677151088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.484505093491948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.452981297482073</v>
+        <v>0.474303899758556</v>
       </c>
       <c r="D8" t="n">
-        <v>0.474303899758556</v>
+        <v>0.708511277775334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.708511277775334</v>
+        <v>0.53969298645928</v>
       </c>
       <c r="F8" t="n">
-        <v>0.53969298645928</v>
+        <v>0.330318887542515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.330318887542515</v>
+        <v>0.197887265448319</v>
       </c>
       <c r="H8" t="n">
-        <v>0.197887265448319</v>
+        <v>0.385404090605957</v>
       </c>
       <c r="I8" t="n">
-        <v>0.385404090605957</v>
+        <v>0.379724102910581</v>
       </c>
       <c r="J8" t="n">
-        <v>0.379724102910581</v>
+        <v>0.672464791241274</v>
       </c>
       <c r="K8" t="n">
-        <v>0.672464791241274</v>
+        <v>0.71838912281039</v>
       </c>
       <c r="L8" t="n">
-        <v>0.71838912281039</v>
+        <v>0.378924737497152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.378924737497152</v>
+        <v>0.619589144561117</v>
       </c>
       <c r="N8" t="n">
-        <v>0.619589144561117</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.258254482209228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.472605946730509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.476425420419455</v>
+        <v>0.464233337259851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.464233337259851</v>
+        <v>0.706497297796603</v>
       </c>
       <c r="E9" t="n">
-        <v>0.706497297796603</v>
+        <v>0.510272192063043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.510272192063043</v>
+        <v>0.418686874626132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.418686874626132</v>
+        <v>0.223394314273261</v>
       </c>
       <c r="H9" t="n">
-        <v>0.223394314273261</v>
+        <v>0.326906105388108</v>
       </c>
       <c r="I9" t="n">
-        <v>0.326906105388108</v>
+        <v>0.340508401165705</v>
       </c>
       <c r="J9" t="n">
-        <v>0.340508401165705</v>
+        <v>0.603725863836496</v>
       </c>
       <c r="K9" t="n">
-        <v>0.603725863836496</v>
+        <v>0.661498159140946</v>
       </c>
       <c r="L9" t="n">
-        <v>0.661498159140946</v>
+        <v>0.369259741689718</v>
       </c>
       <c r="M9" t="n">
-        <v>0.369259741689718</v>
+        <v>0.605720762515847</v>
       </c>
       <c r="N9" t="n">
-        <v>0.605720762515847</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.349545584826316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.463777077783225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.497510487887524</v>
+        <v>0.466647136859669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.466647136859669</v>
+        <v>0.680637201031153</v>
       </c>
       <c r="E10" t="n">
-        <v>0.680637201031153</v>
+        <v>0.586601734450703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.586601734450703</v>
+        <v>0.433288549559339</v>
       </c>
       <c r="G10" t="n">
-        <v>0.433288549559339</v>
+        <v>0.231140663914579</v>
       </c>
       <c r="H10" t="n">
-        <v>0.231140663914579</v>
+        <v>0.39288890608071</v>
       </c>
       <c r="I10" t="n">
-        <v>0.39288890608071</v>
+        <v>0.400497772491133</v>
       </c>
       <c r="J10" t="n">
-        <v>0.400497772491133</v>
+        <v>0.629350439518224</v>
       </c>
       <c r="K10" t="n">
-        <v>0.629350439518224</v>
+        <v>0.677149008732137</v>
       </c>
       <c r="L10" t="n">
-        <v>0.677149008732137</v>
+        <v>0.355170865465525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.355170865465525</v>
+        <v>0.611945859008054</v>
       </c>
       <c r="N10" t="n">
-        <v>0.611945859008054</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.310545566749026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.373830435892481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.368064304468157</v>
+        <v>0.346495236167622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.346495236167622</v>
+        <v>0.583607170163392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.583607170163392</v>
+        <v>0.403693792789707</v>
       </c>
       <c r="F11" t="n">
-        <v>0.403693792789707</v>
+        <v>0.3200919804881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3200919804881</v>
+        <v>0.206480752740589</v>
       </c>
       <c r="H11" t="n">
-        <v>0.206480752740589</v>
+        <v>0.301394636393387</v>
       </c>
       <c r="I11" t="n">
-        <v>0.301394636393387</v>
+        <v>0.28022832538204</v>
       </c>
       <c r="J11" t="n">
-        <v>0.28022832538204</v>
+        <v>0.533333498726061</v>
       </c>
       <c r="K11" t="n">
-        <v>0.533333498726061</v>
+        <v>0.58586931877385</v>
       </c>
       <c r="L11" t="n">
-        <v>0.58586931877385</v>
+        <v>0.285288177307175</v>
       </c>
       <c r="M11" t="n">
-        <v>0.285288177307175</v>
+        <v>0.48529662511572</v>
       </c>
       <c r="N11" t="n">
-        <v>0.48529662511572</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.257067972351958</v>
       </c>
     </row>
